--- a/excels/config/game/arms_evolution.xlsx
+++ b/excels/config/game/arms_evolution.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
   <si>
     <t>名字</t>
   </si>
@@ -50,10 +50,10 @@
     <t>选择上限</t>
   </si>
   <si>
-    <t>前置条件[高级升级才有]</t>
-  </si>
-  <si>
-    <t>修改值</t>
+    <t>前置条件</t>
+  </si>
+  <si>
+    <t>选择后会修改Sv值</t>
   </si>
   <si>
     <t>index</t>
@@ -171,6 +171,18 @@
   </si>
   <si>
     <t>upgrades=15&amp;require=2_adv_a</t>
+  </si>
+  <si>
+    <t>arms_3</t>
+  </si>
+  <si>
+    <t>3_base_1</t>
+  </si>
+  <si>
+    <t>3_base_2</t>
+  </si>
+  <si>
+    <t>3_base_3</t>
   </si>
 </sst>
 </file>
@@ -987,7 +999,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1003,9 +1015,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1018,9 +1027,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1030,12 +1036,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1048,13 +1048,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1255,11 +1249,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{6E30D8D9-8262-45D0-A470-957355EC886D}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{1D4DB099-0915-4F3A-8EA7-899A34E891E6}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{B23E392A-C2B9-4E45-B55A-A5F56CEE0250}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{40885F10-DF03-42A2-9437-1B692D9EF2CA}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
@@ -1523,10 +1517,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1540,7 +1534,7 @@
     <col min="7" max="7" width="9.00833333333333" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.675" style="1" customWidth="1"/>
     <col min="9" max="9" width="44.125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.175" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="1" customWidth="1"/>
     <col min="11" max="11" width="16.3416666666667" style="1" customWidth="1"/>
     <col min="12" max="12" width="12.625" style="1" customWidth="1"/>
     <col min="13" max="13" width="12.875" style="1" customWidth="1"/>
@@ -1567,53 +1561,53 @@
         <v>5</v>
       </c>
       <c r="G1" s="4"/>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
-      <c r="M1" s="21"/>
+      <c r="M1" s="16"/>
     </row>
     <row r="2" ht="18.5" customHeight="1" spans="1:14">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="22">
+      <c r="K2" s="8">
         <v>1</v>
       </c>
-      <c r="L2" s="22">
+      <c r="L2" s="8">
         <v>2</v>
       </c>
-      <c r="M2" s="23">
+      <c r="M2" s="17">
         <v>3</v>
       </c>
       <c r="N2" s="1" t="s">
@@ -1621,264 +1615,367 @@
       </c>
     </row>
     <row r="3" ht="18.5" customHeight="1" spans="1:13">
-      <c r="A3" s="11">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="10">
         <v>0</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="10">
         <v>1</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="10">
         <v>10</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="12" t="s">
+      <c r="J3" s="10"/>
+      <c r="K3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="14"/>
-      <c r="M3" s="24"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="18"/>
     </row>
     <row r="4" ht="18.5" customHeight="1" spans="1:13">
-      <c r="A4" s="11">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="12" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="10">
         <v>0</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="10">
         <v>1</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="10">
         <v>5</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="14"/>
-      <c r="K4" s="12" t="s">
+      <c r="J4" s="10"/>
+      <c r="K4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="14"/>
-      <c r="M4" s="24"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="18"/>
     </row>
     <row r="5" ht="18.5" customHeight="1" spans="1:13">
-      <c r="A5" s="11">
+      <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="12" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="10">
         <v>0</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="10">
         <v>1</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="10">
         <v>10</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="12" t="s">
+      <c r="J5" s="10"/>
+      <c r="K5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="14"/>
-      <c r="M5" s="24"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="18"/>
     </row>
     <row r="6" ht="35" customHeight="1" spans="1:13">
-      <c r="A6" s="11">
+      <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="10">
         <v>1</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="10">
         <v>2</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="10">
         <v>1</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="24"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="18"/>
     </row>
     <row r="7" ht="51.5" customHeight="1" spans="1:13">
-      <c r="A7" s="11">
+      <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="10">
         <v>1</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="10">
         <v>2</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="10">
         <v>1</v>
       </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="24"/>
+      <c r="I7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="18"/>
     </row>
     <row r="8" ht="35" customHeight="1" spans="1:13">
-      <c r="A8" s="11">
+      <c r="A8" s="9">
         <v>6</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="10">
         <v>1</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="10">
         <v>2</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="10">
         <v>1</v>
       </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="24"/>
+      <c r="I8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="18"/>
     </row>
     <row r="9" ht="35" customHeight="1" spans="1:13">
-      <c r="A9" s="16">
+      <c r="A9" s="12">
         <v>7</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="13">
         <v>1</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="15">
         <v>2</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="13">
         <v>1</v>
       </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="17" t="s">
+      <c r="I9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="L9" s="20"/>
-      <c r="M9" s="25"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="19"/>
     </row>
     <row r="10" ht="35" customHeight="1" spans="1:13">
-      <c r="A10" s="16">
+      <c r="A10" s="12">
         <v>7</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="13">
         <v>1</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17" t="s">
+      <c r="F10" s="13">
+        <v>3</v>
+      </c>
+      <c r="G10" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="13">
         <v>1</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="I10" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="J10" s="20"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="25"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="19"/>
+    </row>
+    <row r="11" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A11" s="12">
+        <v>8</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0</v>
+      </c>
+      <c r="F11" s="10">
+        <v>1</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="10">
+        <v>10</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="18"/>
+    </row>
+    <row r="12" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A12" s="12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0</v>
+      </c>
+      <c r="F12" s="10">
+        <v>1</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="10">
+        <v>10</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="18"/>
+    </row>
+    <row r="13" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A13" s="12">
+        <v>10</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0</v>
+      </c>
+      <c r="F13" s="10">
+        <v>1</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="10">
+        <v>10</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excels/config/game/arms_evolution.xlsx
+++ b/excels/config/game/arms_evolution.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345"/>
+    <workbookView windowWidth="22185" windowHeight="10155"/>
   </bookViews>
   <sheets>
     <sheet name="arms_evolution" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
-  <si>
-    <t>名字</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="68">
+  <si>
+    <t>key</t>
   </si>
   <si>
     <t>升级名字</t>
@@ -41,16 +41,28 @@
     <t>关联技能</t>
   </si>
   <si>
-    <t>独特</t>
+    <t>独特(0 计入总等级  1不计入总等级)</t>
   </si>
   <si>
     <t>稀有度[0白,1绿]</t>
   </si>
   <si>
+    <t>技能初始权重</t>
+  </si>
+  <si>
     <t>选择上限</t>
   </si>
   <si>
-    <t>前置条件</t>
+    <t xml:space="preserve"> 触发条件(当前技能等级 pass为必定生效)</t>
+  </si>
+  <si>
+    <t>锁定参数【CodeID&amp;设置概率】</t>
+  </si>
+  <si>
+    <t>解锁参数【CodeID&amp;设置概率&amp;是否包含某个技能才生效不然不生效】</t>
+  </si>
+  <si>
+    <t>解锁参数【CodeID&amp;设置概率&amp;是否包含某个裂变生效】</t>
   </si>
   <si>
     <t>选择后会修改Sv值</t>
@@ -71,10 +83,22 @@
     <t>CodeID</t>
   </si>
   <si>
+    <t>Weight</t>
+  </si>
+  <si>
     <t>Limit</t>
   </si>
   <si>
-    <t>PreCondition</t>
+    <t>UnlockCondition</t>
+  </si>
+  <si>
+    <t>LockConditionParam</t>
+  </si>
+  <si>
+    <t>UnlockConditionParam_0</t>
+  </si>
+  <si>
+    <t>UnlockConditionParam_1</t>
   </si>
   <si>
     <t>AbilityValues[{]</t>
@@ -92,10 +116,19 @@
     <t>arms_2</t>
   </si>
   <si>
-    <t>2_base_1</t>
-  </si>
-  <si>
-    <t>null</t>
+    <t>2_b_1</t>
+  </si>
+  <si>
+    <t>10,15</t>
+  </si>
+  <si>
+    <t>2_b_1&amp;0|2_b_2&amp;0|2_b_3&amp;0</t>
+  </si>
+  <si>
+    <t>2_a_a&amp;100|2_a_b&amp;100|2_a_c&amp;100|2_a_d&amp;100</t>
+  </si>
+  <si>
+    <t>2_a_a_1&amp;100&amp;2_a_a|2_a_b_1&amp;100&amp;2_a_b</t>
   </si>
   <si>
     <t>!damage_mul 20</t>
@@ -104,7 +137,7 @@
     <t>普通进化#2</t>
   </si>
   <si>
-    <t>2_base_2</t>
+    <t>2_b_2</t>
   </si>
   <si>
     <t>radius 50</t>
@@ -113,7 +146,7 @@
     <t>普通进化#3</t>
   </si>
   <si>
-    <t>2_base_3</t>
+    <t>2_b_3</t>
   </si>
   <si>
     <t>duration 0.4</t>
@@ -125,10 +158,16 @@
     <t>触碰到电圈的敌人会被减速25%持续2s，穿越电圈的敌人会造成双倍伤害。</t>
   </si>
   <si>
-    <t>2_adv_a</t>
-  </si>
-  <si>
-    <t>upgrades=10&amp;exclude=2_adv_b,2_adv_c,2_adv_d</t>
+    <t>2_a_a</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>2_a_a&amp;0|2_a_b&amp;0|2_a_c&amp;0|2_a_d&amp;0</t>
+  </si>
+  <si>
+    <t>2_b_1&amp;100|2_b_2&amp;100|2_b_3&amp;100</t>
   </si>
   <si>
     <t>高阶进化#2</t>
@@ -137,7 +176,7 @@
     <t>【新增】触碰到电圈的敌人会被麻痹1秒（10秒内至多被麻痹一次），被麻痹的敌人雷元素抗性降低10%。（麻痹状态下敌人不可移动）</t>
   </si>
   <si>
-    <t>2_adv_b</t>
+    <t>2_a_b</t>
   </si>
   <si>
     <t>高阶进化#3</t>
@@ -146,7 +185,7 @@
     <t>触碰到电圈的敌人会被电离子感染，传递给至多5个敌人，每个敌人受到的伤害递减10%。（闪电链）</t>
   </si>
   <si>
-    <t>2_adv_c</t>
+    <t>2_a_c</t>
   </si>
   <si>
     <t>高阶进化#4</t>
@@ -155,7 +194,7 @@
     <t>电圈伤害降低%!damage_mul%%%，但是电圈伤害频率调整为每0.33秒一次。</t>
   </si>
   <si>
-    <t>2_adv_d</t>
+    <t>2_a_d</t>
   </si>
   <si>
     <t>!damage_mul -30</t>
@@ -167,22 +206,31 @@
     <t>触碰到电圈的敌人会被减速25%持续2s，穿越电圈的敌人会造成3倍伤害</t>
   </si>
   <si>
-    <t>2_adv_a_1</t>
-  </si>
-  <si>
-    <t>upgrades=15&amp;require=2_adv_a</t>
+    <t>2_a_a_1</t>
+  </si>
+  <si>
+    <t>2_a_a_1&amp;0</t>
+  </si>
+  <si>
+    <t>高阶进化#6</t>
+  </si>
+  <si>
+    <t>2_a_b_1</t>
+  </si>
+  <si>
+    <t>2_a_b_1&amp;0</t>
   </si>
   <si>
     <t>arms_3</t>
   </si>
   <si>
-    <t>3_base_1</t>
-  </si>
-  <si>
-    <t>3_base_2</t>
-  </si>
-  <si>
-    <t>3_base_3</t>
+    <t>3_b_1</t>
+  </si>
+  <si>
+    <t>3_b_2</t>
+  </si>
+  <si>
+    <t>3_b_3</t>
   </si>
 </sst>
 </file>
@@ -195,7 +243,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,7 +254,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="0"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -361,7 +415,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -370,7 +424,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
+        <fgColor rgb="FF5A5A5A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6E6E6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,7 +621,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -570,13 +630,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thick">
         <color rgb="FF595959"/>
       </left>
       <right style="medium">
         <color theme="0"/>
       </right>
-      <top style="medium">
+      <top style="thick">
         <color rgb="FF595959"/>
       </top>
       <bottom/>
@@ -589,7 +649,85 @@
       <right style="medium">
         <color theme="0"/>
       </right>
-      <top style="medium">
+      <top style="thick">
+        <color rgb="FF595959"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF595959"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF595959"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF5A5A5A"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF5A5A5A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF5A5A5A"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF5A5A5A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF595959"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF595959"/>
+      </right>
+      <top style="thick">
         <color rgb="FF595959"/>
       </top>
       <bottom/>
@@ -597,156 +735,40 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF5A5A5A"/>
+        <color rgb="FFFFFFFF"/>
       </left>
-      <right style="thin">
-        <color rgb="FFEBEBEB"/>
+      <right style="thick">
+        <color rgb="FF595959"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color rgb="FFEBEBEB"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFEBEBEB"/>
+        <color rgb="FFFFFFFF"/>
       </left>
-      <right style="thin">
-        <color rgb="FFEBEBEB"/>
+      <right style="thick">
+        <color rgb="FF595959"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FF5A5A5A"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FFEBEBEB"/>
+        <color rgb="FF5A5A5A"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF5A5A5A"/>
+        <color rgb="FFFFFFFF"/>
       </left>
-      <right style="thin">
-        <color rgb="FFEBEBEB"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFEBEBEB"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFEBEBEB"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFEBEBEB"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFEBEBEB"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFEBEBEB"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFEBEBEB"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF5A5A5A"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFEBEBEB"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFEBEBEB"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF5A5A5A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFEBEBEB"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFEBEBEB"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFEBEBEB"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF5A5A5A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFEBEBEB"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFEBEBEB"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFEBEBEB"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right style="medium">
+      <right style="thick">
         <color rgb="FF595959"/>
       </right>
-      <top style="medium">
+      <top/>
+      <bottom style="thick">
         <color rgb="FF595959"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFEBEBEB"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF5A5A5A"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFEBEBEB"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFEBEBEB"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF5A5A5A"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFEBEBEB"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFEBEBEB"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFEBEBEB"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF5A5A5A"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFEBEBEB"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF5A5A5A"/>
       </bottom>
       <diagonal/>
     </border>
@@ -868,55 +890,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -931,75 +950,78 @@
     <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1027,37 +1049,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1249,11 +1274,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{1D4DB099-0915-4F3A-8EA7-899A34E891E6}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{17B6CB6B-DD4E-4968-8FF4-7E2432FAD0C5}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{40885F10-DF03-42A2-9437-1B692D9EF2CA}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{73827C1C-57B7-4408-ACA0-5E088E633C7E}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
@@ -1517,31 +1542,34 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="7.34166666666667" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.675" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.5083333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.84166666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.00833333333333" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.675" style="1" customWidth="1"/>
-    <col min="9" max="9" width="44.125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.3416666666667" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.875" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="11.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19" style="1" customWidth="1"/>
+    <col min="10" max="11" width="36.25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="52.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="57.25" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.3416666666667" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12.875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.5" customHeight="1" spans="1:13">
+    <row r="1" ht="38" customHeight="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1570,62 +1598,87 @@
       <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="16"/>
+      <c r="K1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="16"/>
     </row>
-    <row r="2" ht="18.5" customHeight="1" spans="1:14">
+    <row r="2" ht="18.5" customHeight="1" spans="1:18">
       <c r="A2" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
       <c r="D2" s="8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="8">
+        <v>20</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="8">
         <v>1</v>
       </c>
-      <c r="L2" s="8">
+      <c r="P2" s="8">
         <v>2</v>
       </c>
-      <c r="M2" s="17">
+      <c r="Q2" s="17">
         <v>3</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>17</v>
+      <c r="R2" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="3" ht="18.5" customHeight="1" spans="1:13">
-      <c r="A3" s="9">
-        <v>1</v>
+    <row r="3" ht="18.5" customHeight="1" spans="1:17">
+      <c r="A3" s="9" t="str">
+        <f>G3</f>
+        <v>2_b_1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E3" s="10">
         <v>0</v>
@@ -1634,64 +1687,92 @@
         <v>1</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H3" s="10">
+        <f>IF(F3=1,100,0)</f>
+        <v>100</v>
+      </c>
+      <c r="I3" s="10">
         <v>10</v>
       </c>
-      <c r="I3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="10"/>
+      <c r="J3" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="K3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="18"/>
+        <v>31</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="18"/>
     </row>
-    <row r="4" ht="18.5" customHeight="1" spans="1:13">
-      <c r="A4" s="9">
-        <v>2</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="10">
+    <row r="4" ht="18.5" customHeight="1" spans="1:17">
+      <c r="A4" s="9" t="str">
+        <f t="shared" ref="A4:A14" si="0">G4</f>
+        <v>2_b_2</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="12">
         <v>0</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="12">
         <v>1</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="10">
+      <c r="G4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="12">
+        <f t="shared" ref="H4:H14" si="1">IF(F4=1,100,0)</f>
+        <v>100</v>
+      </c>
+      <c r="I4" s="12">
         <v>5</v>
       </c>
-      <c r="I4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="18"/>
+      <c r="J4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="19"/>
     </row>
-    <row r="5" ht="18.5" customHeight="1" spans="1:13">
-      <c r="A5" s="9">
-        <v>3</v>
+    <row r="5" ht="18.5" customHeight="1" spans="1:17">
+      <c r="A5" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>2_b_3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="10" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E5" s="10">
         <v>0</v>
@@ -1700,66 +1781,92 @@
         <v>1</v>
       </c>
       <c r="G5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="10">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="I5" s="10">
+        <v>10</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="18"/>
+    </row>
+    <row r="6" ht="35" customHeight="1" spans="1:17">
+      <c r="A6" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>2_a_a</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="10">
-        <v>10</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="18"/>
+      <c r="E6" s="12">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12">
+        <v>2</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="12">
+        <v>1</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="19"/>
     </row>
-    <row r="6" ht="35" customHeight="1" spans="1:13">
-      <c r="A6" s="9">
-        <v>4</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="10">
-        <v>1</v>
-      </c>
-      <c r="F6" s="10">
-        <v>2</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="10">
-        <v>1</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="18"/>
-    </row>
-    <row r="7" ht="51.5" customHeight="1" spans="1:13">
-      <c r="A7" s="9">
-        <v>5</v>
+    <row r="7" ht="51.5" customHeight="1" spans="1:17">
+      <c r="A7" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>2_a_b</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E7" s="10">
         <v>1</v>
@@ -1768,194 +1875,264 @@
         <v>2</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="H7" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="10">
         <v>1</v>
       </c>
-      <c r="I7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="18"/>
+      <c r="J7" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="18"/>
     </row>
-    <row r="8" ht="35" customHeight="1" spans="1:13">
-      <c r="A8" s="9">
-        <v>6</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="10">
+    <row r="8" ht="35" customHeight="1" spans="1:17">
+      <c r="A8" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>2_a_c</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="12">
         <v>1</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="12">
         <v>2</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="10">
+      <c r="G8" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="12">
         <v>1</v>
       </c>
-      <c r="I8" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="18"/>
+      <c r="J8" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="19"/>
     </row>
-    <row r="9" ht="35" customHeight="1" spans="1:13">
-      <c r="A9" s="12">
-        <v>7</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="13">
+    <row r="9" ht="35" customHeight="1" spans="1:17">
+      <c r="A9" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>2_a_d</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="10">
         <v>1</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="10">
         <v>2</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="13">
+        <v>55</v>
+      </c>
+      <c r="H9" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="10">
         <v>1</v>
       </c>
-      <c r="I9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="L9" s="13"/>
-      <c r="M9" s="19"/>
+      <c r="J9" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="18"/>
     </row>
-    <row r="10" ht="35" customHeight="1" spans="1:13">
-      <c r="A10" s="12">
-        <v>7</v>
-      </c>
-      <c r="B10" s="13" t="s">
+    <row r="10" ht="35" customHeight="1" spans="1:17">
+      <c r="A10" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>2_a_a_1</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="12">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12">
+        <v>3</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="12">
+        <v>1</v>
+      </c>
+      <c r="J10" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="13">
+      <c r="K10" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="19"/>
+    </row>
+    <row r="11" ht="35" customHeight="1" spans="1:17">
+      <c r="A11" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>2_a_b_1</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="10">
         <v>1</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F11" s="10">
         <v>3</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G11" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="10">
+        <v>1</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="L11" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="13">
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="18"/>
+    </row>
+    <row r="12" ht="18.5" customHeight="1" spans="1:17">
+      <c r="A12" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>3_b_1</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12">
         <v>1</v>
       </c>
-      <c r="I10" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="19"/>
+      <c r="G12" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="12">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="I12" s="12">
+        <v>10</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="19"/>
     </row>
-    <row r="11" ht="18.5" customHeight="1" spans="1:13">
-      <c r="A11" s="12">
-        <v>8</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="10">
-        <v>0</v>
-      </c>
-      <c r="F11" s="10">
-        <v>1</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="10">
-        <v>10</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="18"/>
-    </row>
-    <row r="12" ht="18.5" customHeight="1" spans="1:13">
-      <c r="A12" s="12">
-        <v>9</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="10">
-        <v>0</v>
-      </c>
-      <c r="F12" s="10">
-        <v>1</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" s="10">
-        <v>10</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="18"/>
-    </row>
-    <row r="13" ht="18.5" customHeight="1" spans="1:13">
-      <c r="A13" s="12">
-        <v>10</v>
+    <row r="13" ht="18.5" customHeight="1" spans="1:17">
+      <c r="A13" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>3_b_2</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="10" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E13" s="10">
         <v>0</v>
@@ -1964,19 +2141,66 @@
         <v>1</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="H13" s="10">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="I13" s="10">
         <v>10</v>
       </c>
-      <c r="I13" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13" s="10"/>
+      <c r="J13" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
-      <c r="M13" s="18"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="18"/>
     </row>
+    <row r="14" ht="18.5" customHeight="1" spans="1:17">
+      <c r="A14" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>3_b_3</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="14">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="I14" s="14">
+        <v>10</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="20"/>
+    </row>
+    <row r="15" ht="14.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
